--- a/Bomberman/Docs/Roadmap_Bomberman.xlsx
+++ b/Bomberman/Docs/Roadmap_Bomberman.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>DeadLine</t>
   </si>
@@ -63,9 +63,6 @@
     <t>VI</t>
   </si>
   <si>
-    <t>Вражеские NPC</t>
-  </si>
-  <si>
     <t>Добавление бонусов и прочего</t>
   </si>
   <si>
@@ -75,18 +72,12 @@
     <t>Поднять во время игры разные бонусы и воспользоваться ими</t>
   </si>
   <si>
-    <t>Взаимодействовать с монстрами</t>
-  </si>
-  <si>
     <t>Прямоугольник передвигается по полю, при помощи нажатия стрелок</t>
   </si>
   <si>
     <t>Детализация и анимация персонажа, столкновение с обьектами</t>
   </si>
   <si>
-    <t>Герой не может двигаться по неразрущаемым и разрушаемым блокам на поле и останавливается при соприкосновении с ними</t>
-  </si>
-  <si>
     <t>Управлять детализированым героем и передвигаться по определенным участкам поля</t>
   </si>
   <si>
@@ -96,51 +87,78 @@
     <t>Управлять прямоугольником, передвигаясь по полю</t>
   </si>
   <si>
-    <t>Под музыку, герой ставит и взрывает бомбы, влияя на ландшафт местности и монстров</t>
-  </si>
-  <si>
     <t>Слушать звуки игры, ставить и взрывать бомбы разрушать блоки и уничтожать монстров</t>
   </si>
   <si>
-    <t>NPC двигается в одном направлении N клеток или пока не столкнется со стеной, затем произвольно сменяет направление и продолжает движение</t>
-  </si>
-  <si>
     <t>Управление персонажем и отображение поля</t>
   </si>
   <si>
-    <t>Интерфейс, таймер и выбор уровней сложности</t>
-  </si>
-  <si>
-    <t>Следить за здоровьем, временем и количеством жизней и счетом, менять уровень сложности</t>
-  </si>
-  <si>
-    <t>• Сделать анимацию движения героя.
+    <t>Интерфейс, таймер и выбор уровней</t>
+  </si>
+  <si>
+    <t>Предлагается выбор одного из нескольких уровней. Над полем появляются иконки с количеством очков, жизней, оставшихся бомб, которые можно установить</t>
+  </si>
+  <si>
+    <t>Следить за здоровьем, временем и количеством жизней и счетом, менять уровень</t>
+  </si>
+  <si>
+    <t>• Разработать пользовательский интерфейс.
+• Добавить окно выбора уровня и таймер.</t>
+  </si>
+  <si>
+    <t>• Сделать анимацию движения героя(движение ног героя).
 • Придумать то как герой будет взаимодействовать с разными типами блоков(столкновение с обьектами).</t>
   </si>
   <si>
-    <t>• Придумать базовый ИИ для NPC и логику их движения по полю.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Придумать логику взрыва и установки бомб, а так же их влияние на окружение(блоки и монстров).
-• Добавить звуковое сопровождение к игре.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Придумать разные типы бонусов, и какое влияние они оказывают на игру и героя.
-</t>
-  </si>
-  <si>
-    <t>Предлагается выбор одного из 3-х уровней сложности. Над полем появляются иконки с количеством очков, жизней, оставшихся бомб, которые можно установить</t>
-  </si>
-  <si>
-    <t>• Разработать пользовательский интерфейс.
-• Добавить окно выбора уровня сложности и таймер.</t>
+    <t>• Придумать базовый ИИ для NPC и логику их движения по полю.
+• Добавить функции создания и анимации NPC</t>
+  </si>
+  <si>
+    <t>Под музыку, герой ставит и взрывает бомбы, уничтожая  ландшафт местности и монстров</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>Взаимодействие с NPC</t>
+  </si>
+  <si>
+    <t>При соприкосновении с NPC герой теряет 1 жизнь или погибает, если жизни закончились</t>
+  </si>
+  <si>
+    <t>Погибать от монстров</t>
+  </si>
+  <si>
+    <t>Смотреть как движутся монстры</t>
   </si>
   <si>
     <t>• Подготовить спрайты для всех обьектов.
 • Сделать ввод с клавиатуры.
 • Добавить отрисовку и движение прямоугольника, выступающего вкачестве героя.
-• Придумать движок для отрисовки поля и обьектов.</t>
+• Реализовать отрисовку поля и обьектов.</t>
+  </si>
+  <si>
+    <t>При перемещении герой двишает ногами, он не может двигаться по неразрущаемым и разрушаемым блокам на поле и останавливается при соприкосновении с ними</t>
+  </si>
+  <si>
+    <t>Анимированные вражеские NPC</t>
+  </si>
+  <si>
+    <t>Анимированный NPC двигается в одном направлении N клеток или пока не столкнется со стеной, затем произвольно сменяет направление и продолжает движение</t>
+  </si>
+  <si>
+    <t>• Добавить жизни героя и контроль за ними при столкновении с монстрами.
+• Добавить анимацию смерти героя
+• Добавить логику контроля столкновений с монстрами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Реализовать логику взрыва и установки бомб, а так же их влияние на окружение(блоки и монстров).
+• Добавить звуковое сопровождение к игре.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Реализовать разные типы бонусов, и какое влияние они оказывают на игру и героя.
+</t>
   </si>
 </sst>
 </file>
@@ -697,13 +715,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -711,10 +729,10 @@
     <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="24" width="28.44140625" customWidth="1"/>
+    <col min="4" max="25" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
@@ -723,8 +741,9 @@
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:24" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
@@ -746,30 +765,35 @@
       <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="H2" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="10">
-        <v>42920</v>
+        <v>42927</v>
       </c>
       <c r="C3" s="10">
-        <v>42927</v>
+        <v>42934</v>
       </c>
       <c r="D3" s="10">
-        <v>42934</v>
+        <v>42941</v>
       </c>
       <c r="E3" s="10">
-        <v>42941</v>
+        <v>42948</v>
       </c>
       <c r="F3" s="10">
-        <v>42948</v>
+        <v>42955</v>
       </c>
       <c r="G3" s="10">
-        <v>42955</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>42962</v>
+      </c>
+      <c r="H3" s="10">
+        <v>42969</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -786,30 +810,33 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="62.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -826,30 +853,33 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -866,30 +896,33 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:24" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -906,30 +939,33 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
     </row>
-    <row r="7" spans="1:24" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="122.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -946,8 +982,9 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:24" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
@@ -957,7 +994,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -974,23 +1011,26 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
     </row>
-    <row r="10" spans="1:24" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="19"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="19"/>
     </row>
-    <row r="13" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
